--- a/Empirical Application/Estimates/emp_app_knn_c3_L5_hstar.xlsx
+++ b/Empirical Application/Estimates/emp_app_knn_c3_L5_hstar.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>41.54455035694985</v>
+        <v>41.8970822137429</v>
       </c>
       <c r="D2">
-        <v>2.043000742958466</v>
+        <v>2.001494298348239</v>
       </c>
       <c r="E2">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F2">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="H2">
-        <v>0.01745375812673592</v>
+        <v>0.01619876437731848</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>42.16408301545918</v>
+        <v>42.02913389976197</v>
       </c>
       <c r="D3">
-        <v>1.900608935923957</v>
+        <v>1.877060382159311</v>
       </c>
       <c r="E3">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F3">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="H3">
-        <v>0.0162372768465528</v>
+        <v>0.0151916789758987</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>43.48024658850946</v>
+        <v>43.64520400955368</v>
       </c>
       <c r="D4">
-        <v>1.769853641138441</v>
+        <v>1.759933556873974</v>
       </c>
       <c r="E4">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F4">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="H4">
-        <v>0.01512020858466287</v>
+        <v>0.01424373231093628</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>45.36512287055261</v>
+        <v>45.20871349632435</v>
       </c>
       <c r="D5">
-        <v>1.703286913061895</v>
+        <v>1.682486437797968</v>
       </c>
       <c r="E5">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F5">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="H5">
-        <v>0.01455151590300786</v>
+        <v>0.01361692681134046</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>46.62729796781099</v>
+        <v>46.04156320620454</v>
       </c>
       <c r="D6">
-        <v>1.698582931985841</v>
+        <v>1.645874846535583</v>
       </c>
       <c r="E6">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F6">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G6">
-        <v>0.04194920417381524</v>
+        <v>0.03935365104624165</v>
       </c>
       <c r="H6">
-        <v>0.01451132886528055</v>
+        <v>0.01332061692885541</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>46.95438423015975</v>
+        <v>46.8643484073905</v>
       </c>
       <c r="D7">
-        <v>1.688090840351302</v>
+        <v>1.660306450778112</v>
       </c>
       <c r="E7">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F7">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G7">
-        <v>0.03696915950324322</v>
+        <v>0.03259581284422906</v>
       </c>
       <c r="H7">
-        <v>0.01442169285792031</v>
+        <v>0.01343741674032845</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>48.12289743377044</v>
+        <v>48.25866074815974</v>
       </c>
       <c r="D8">
-        <v>1.705372807388018</v>
+        <v>1.724039066901391</v>
       </c>
       <c r="E8">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F8">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G8">
-        <v>0.02648099964624717</v>
+        <v>0.02625470295568326</v>
       </c>
       <c r="H8">
-        <v>0.01456933610947208</v>
+        <v>0.0139532261696049</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>47.7548879573864</v>
+        <v>48.05542333113135</v>
       </c>
       <c r="D9">
-        <v>1.758719230638746</v>
+        <v>1.716492893841379</v>
       </c>
       <c r="E9">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F9">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G9">
-        <v>0.01094333840287893</v>
+        <v>0.01378460790387237</v>
       </c>
       <c r="H9">
-        <v>0.0150250851206038</v>
+        <v>0.01389215246110097</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>48.25642302476029</v>
+        <v>48.19366638114156</v>
       </c>
       <c r="D10">
-        <v>1.750782242016921</v>
+        <v>1.718379535194132</v>
       </c>
       <c r="E10">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F10">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G10">
-        <v>0.007438448582553025</v>
+        <v>0.005093596319050553</v>
       </c>
       <c r="H10">
-        <v>0.0149572778620223</v>
+        <v>0.013907421682084</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>48.07914853597809</v>
+        <v>47.24446395483862</v>
       </c>
       <c r="D11">
-        <v>1.782913844425067</v>
+        <v>1.717315836614002</v>
       </c>
       <c r="E11">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F11">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G11">
-        <v>-0.004916223125311481</v>
+        <v>-0.006898836440017808</v>
       </c>
       <c r="H11">
-        <v>0.01523178447617267</v>
+        <v>0.01389881281285952</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>47.71720653190901</v>
+        <v>47.845956482463</v>
       </c>
       <c r="D12">
-        <v>1.732879583140637</v>
+        <v>1.675660075559171</v>
       </c>
       <c r="E12">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F12">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G12">
-        <v>-0.01147448229285888</v>
+        <v>-0.01449312346015943</v>
       </c>
       <c r="H12">
-        <v>0.01480433191771508</v>
+        <v>0.01356167877313633</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>47.11605701501324</v>
+        <v>47.41425076094393</v>
       </c>
       <c r="D13">
-        <v>1.713930221509862</v>
+        <v>1.654816625940321</v>
       </c>
       <c r="E13">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F13">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G13">
-        <v>-0.01679846850593956</v>
+        <v>-0.0174121772496858</v>
       </c>
       <c r="H13">
-        <v>0.01464244378541775</v>
+        <v>0.01339298574739805</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>47.81744974101947</v>
+        <v>46.85653861725263</v>
       </c>
       <c r="D14">
-        <v>1.754898264258941</v>
+        <v>1.707109667331252</v>
       </c>
       <c r="E14">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F14">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G14">
-        <v>-0.0126033679564109</v>
+        <v>-0.01099250711015642</v>
       </c>
       <c r="H14">
-        <v>0.01499244185151378</v>
+        <v>0.01381621086313489</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>46.16778853010991</v>
+        <v>45.76053457698765</v>
       </c>
       <c r="D15">
-        <v>1.804605806089859</v>
+        <v>1.710395407768618</v>
       </c>
       <c r="E15">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F15">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G15">
-        <v>-0.007547550639978429</v>
+        <v>-0.005102659246789321</v>
       </c>
       <c r="H15">
-        <v>0.01541710318126695</v>
+        <v>0.01384280346207152</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>46.28698026691302</v>
+        <v>45.93976099453423</v>
       </c>
       <c r="D16">
-        <v>1.858426549796224</v>
+        <v>1.773607639289611</v>
       </c>
       <c r="E16">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F16">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G16">
-        <v>-0.002004006069545961</v>
+        <v>-0.001867851457328884</v>
       </c>
       <c r="H16">
-        <v>0.01587690440556392</v>
+        <v>0.01435440124429758</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>45.06713299643607</v>
+        <v>45.26947497118162</v>
       </c>
       <c r="D17">
-        <v>1.876140674232754</v>
+        <v>1.849796661823564</v>
       </c>
       <c r="E17">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F17">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G17">
-        <v>0.009664852277078629</v>
+        <v>0.007559699860938673</v>
       </c>
       <c r="H17">
-        <v>0.01602823966298256</v>
+        <v>0.01497102454678924</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>46.23988415173454</v>
+        <v>46.43486524351653</v>
       </c>
       <c r="D18">
-        <v>1.916698147631518</v>
+        <v>1.856553276648601</v>
       </c>
       <c r="E18">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F18">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G18">
-        <v>0.007950445942237084</v>
+        <v>0.009865758639869071</v>
       </c>
       <c r="H18">
-        <v>0.01637473015417469</v>
+        <v>0.0150257080957903</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>46.87154043358154</v>
+        <v>46.42803847535233</v>
       </c>
       <c r="D19">
-        <v>1.950894375116671</v>
+        <v>1.869282353138662</v>
       </c>
       <c r="E19">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F19">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G19">
-        <v>0.02142973152573311</v>
+        <v>0.0241070720139756</v>
       </c>
       <c r="H19">
-        <v>0.01666687526740084</v>
+        <v>0.01512872877937333</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>47.39656556078165</v>
+        <v>47.54710024929038</v>
       </c>
       <c r="D20">
-        <v>1.900644591062766</v>
+        <v>1.859823792468141</v>
       </c>
       <c r="E20">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F20">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G20">
-        <v>0.02407434416270382</v>
+        <v>0.02320858840815894</v>
       </c>
       <c r="H20">
-        <v>0.01623758145543309</v>
+        <v>0.01505217747679066</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>48.66243337934582</v>
+        <v>48.62380273869412</v>
       </c>
       <c r="D21">
-        <v>1.922547637647201</v>
+        <v>1.890222686581894</v>
       </c>
       <c r="E21">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F21">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G21">
-        <v>0.02293209072047087</v>
+        <v>0.02600716045572331</v>
       </c>
       <c r="H21">
-        <v>0.01642470350061148</v>
+        <v>0.01529820591838358</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>49.08952109177741</v>
+        <v>48.43505999963168</v>
       </c>
       <c r="D22">
-        <v>2.001180771730599</v>
+        <v>1.965264031267818</v>
       </c>
       <c r="E22">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F22">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G22">
-        <v>0.01635022102973127</v>
+        <v>0.01692419242841568</v>
       </c>
       <c r="H22">
-        <v>0.01709648186768706</v>
+        <v>0.01590554067928077</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>49.59654557422721</v>
+        <v>49.61766609922375</v>
       </c>
       <c r="D23">
-        <v>2.027449558455931</v>
+        <v>1.966080556824181</v>
       </c>
       <c r="E23">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F23">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G23">
-        <v>0.009167153666808403</v>
+        <v>0.01206802593719156</v>
       </c>
       <c r="H23">
-        <v>0.01732090129159917</v>
+        <v>0.0159121490943567</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>50.13887533294563</v>
+        <v>49.65313513983966</v>
       </c>
       <c r="D24">
-        <v>2.047837536396697</v>
+        <v>1.994481404300986</v>
       </c>
       <c r="E24">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F24">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G24">
-        <v>-0.001471585590435875</v>
+        <v>-0.001687924227333992</v>
       </c>
       <c r="H24">
-        <v>0.01749507980665739</v>
+        <v>0.01614200667465188</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>48.73626751171141</v>
+        <v>49.43062064409735</v>
       </c>
       <c r="D25">
-        <v>2.050689886495133</v>
+        <v>1.984578465158838</v>
       </c>
       <c r="E25">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F25">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G25">
-        <v>-0.01065102299907537</v>
+        <v>-0.003553922442105062</v>
       </c>
       <c r="H25">
-        <v>0.01751944799589201</v>
+        <v>0.01606185886811605</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>48.85591951649155</v>
+        <v>49.14273603206304</v>
       </c>
       <c r="D26">
-        <v>2.08750403724264</v>
+        <v>2.023738786103327</v>
       </c>
       <c r="E26">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F26">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G26">
-        <v>-0.01277164807013747</v>
+        <v>-0.007750672902989963</v>
       </c>
       <c r="H26">
-        <v>0.01783395854367464</v>
+        <v>0.01637879647440524</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>48.33828502027089</v>
+        <v>48.35892262530298</v>
       </c>
       <c r="D27">
-        <v>2.144750564443271</v>
+        <v>2.057553196855945</v>
       </c>
       <c r="E27">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F27">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G27">
-        <v>-0.0181278472185145</v>
+        <v>-0.01551529099406643</v>
       </c>
       <c r="H27">
-        <v>0.01832302691175977</v>
+        <v>0.01665246783724227</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>47.16111186631191</v>
+        <v>47.27703237291694</v>
       </c>
       <c r="D28">
-        <v>2.099131124099045</v>
+        <v>2.053882178566855</v>
       </c>
       <c r="E28">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F28">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G28">
-        <v>-0.02775978888620294</v>
+        <v>-0.01856923995205597</v>
       </c>
       <c r="H28">
-        <v>0.01793329103898072</v>
+        <v>0.01662275705548343</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>46.95826969949376</v>
+        <v>48.05517514795731</v>
       </c>
       <c r="D29">
-        <v>2.102355981833015</v>
+        <v>2.097690774961423</v>
       </c>
       <c r="E29">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F29">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G29">
-        <v>-0.01678737988309869</v>
+        <v>-0.01647472097978664</v>
       </c>
       <c r="H29">
-        <v>0.01796084163438596</v>
+        <v>0.01697731471337049</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>47.04605740055541</v>
+        <v>47.19495233515329</v>
       </c>
       <c r="D30">
-        <v>2.149813052891204</v>
+        <v>2.083445378760267</v>
       </c>
       <c r="E30">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F30">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G30">
-        <v>-0.01970684039213668</v>
+        <v>-0.01860999157101926</v>
       </c>
       <c r="H30">
-        <v>0.01836627674864513</v>
+        <v>0.01686202194600437</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>46.69609001926489</v>
+        <v>47.13521954017312</v>
       </c>
       <c r="D31">
-        <v>2.148407501993731</v>
+        <v>2.145833202564643</v>
       </c>
       <c r="E31">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F31">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G31">
-        <v>-0.02238589388479619</v>
+        <v>-0.02240407859489069</v>
       </c>
       <c r="H31">
-        <v>0.01835426885022226</v>
+        <v>0.017366947520189</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>45.69730911115316</v>
+        <v>46.68205674751071</v>
       </c>
       <c r="D32">
-        <v>2.104460053261365</v>
+        <v>2.130291163776076</v>
       </c>
       <c r="E32">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F32">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G32">
-        <v>-0.01534680125693466</v>
+        <v>-0.01587121591579237</v>
       </c>
       <c r="H32">
-        <v>0.01797881713141814</v>
+        <v>0.0172411605896507</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>46.05028673041562</v>
+        <v>46.79466528733149</v>
       </c>
       <c r="D33">
-        <v>2.142469681497183</v>
+        <v>2.093488430306323</v>
       </c>
       <c r="E33">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F33">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G33">
-        <v>-0.01577371730939046</v>
+        <v>-0.02453082378304266</v>
       </c>
       <c r="H33">
-        <v>0.01830354087907299</v>
+        <v>0.0169433037291991</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>45.70282505374968</v>
+        <v>46.16513738069996</v>
       </c>
       <c r="D34">
-        <v>2.185729395058085</v>
+        <v>2.147975487119938</v>
       </c>
       <c r="E34">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F34">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G34">
-        <v>-0.01818834779820668</v>
+        <v>-0.02005180800019129</v>
       </c>
       <c r="H34">
-        <v>0.01867311714071961</v>
+        <v>0.01738428574731712</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>44.7565419987035</v>
+        <v>44.77427005012047</v>
       </c>
       <c r="D35">
-        <v>2.222300013951716</v>
+        <v>2.082278662729025</v>
       </c>
       <c r="E35">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F35">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G35">
-        <v>-0.01545316611310774</v>
+        <v>-0.01729361363883872</v>
       </c>
       <c r="H35">
-        <v>0.01898554714786203</v>
+        <v>0.01685257932201042</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>44.70562366520237</v>
+        <v>44.73763782639016</v>
       </c>
       <c r="D36">
-        <v>2.149715108144575</v>
+        <v>2.093096832297745</v>
       </c>
       <c r="E36">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F36">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G36">
-        <v>-0.01692846058982838</v>
+        <v>-0.02027054267111903</v>
       </c>
       <c r="H36">
-        <v>0.01836543998736478</v>
+        <v>0.01694013439522857</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>44.43447492999129</v>
+        <v>44.13024334267048</v>
       </c>
       <c r="D37">
-        <v>2.064567718036335</v>
+        <v>1.960264362795721</v>
       </c>
       <c r="E37">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F37">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G37">
-        <v>-0.0180663723539904</v>
+        <v>-0.02515993681894692</v>
       </c>
       <c r="H37">
-        <v>0.01763800904677688</v>
+        <v>0.01586507668614772</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>44.13592175284234</v>
+        <v>43.98666305512268</v>
       </c>
       <c r="D38">
-        <v>2.006955341357881</v>
+        <v>1.943266340718074</v>
       </c>
       <c r="E38">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F38">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G38">
-        <v>-0.02024820824472107</v>
+        <v>-0.02323099108512618</v>
       </c>
       <c r="H38">
-        <v>0.01714581515447511</v>
+        <v>0.01572750599471807</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>44.22358344116765</v>
+        <v>44.36824135795892</v>
       </c>
       <c r="D39">
-        <v>2.070907829552957</v>
+        <v>1.987195357510597</v>
       </c>
       <c r="E39">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F39">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G39">
-        <v>-0.01401836577841475</v>
+        <v>0.05777101876380435</v>
       </c>
       <c r="H39">
-        <v>0.01769217386942271</v>
+        <v>0.01608303825525791</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>42.98875541678062</v>
+        <v>43.43876992013166</v>
       </c>
       <c r="D40">
-        <v>2.172793005349254</v>
+        <v>2.141475439232942</v>
       </c>
       <c r="E40">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F40">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G40">
-        <v>-0.002403315312130117</v>
+        <v>-0.006515949868261961</v>
       </c>
       <c r="H40">
-        <v>0.01856259901301489</v>
+        <v>0.01733167868056223</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>43.15966715377716</v>
+        <v>42.76907539629998</v>
       </c>
       <c r="D41">
-        <v>2.382396547098847</v>
+        <v>2.339928336650847</v>
       </c>
       <c r="E41">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F41">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G41">
-        <v>-0.0006365737972344743</v>
+        <v>0.002589914744781341</v>
       </c>
       <c r="H41">
-        <v>0.02035328339372975</v>
+        <v>0.01893782451266466</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>42.46311173459431</v>
+        <v>42.44817880707977</v>
       </c>
       <c r="D42">
-        <v>2.419448893607269</v>
+        <v>2.411468174327554</v>
       </c>
       <c r="E42">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F42">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G42">
-        <v>0.004316567969754104</v>
+        <v>0.001902506274693305</v>
       </c>
       <c r="H42">
-        <v>0.02066982889485841</v>
+        <v>0.01951682040342135</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>42.51360347415714</v>
+        <v>54.01763305232917</v>
       </c>
       <c r="D43">
-        <v>2.499425779251381</v>
+        <v>11.4330247157101</v>
       </c>
       <c r="E43">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F43">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G43">
-        <v>0.009149557786220263</v>
+        <v>0.002982811583957545</v>
       </c>
       <c r="H43">
-        <v>0.02135308719643913</v>
+        <v>0.09253130205900968</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>44.32109321526155</v>
+        <v>43.69508584746825</v>
       </c>
       <c r="D44">
-        <v>2.550504891962159</v>
+        <v>2.535057076344301</v>
       </c>
       <c r="E44">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F44">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="G44">
-        <v>0.008809014848676133</v>
+        <v>0.004545295488129053</v>
       </c>
       <c r="H44">
-        <v>0.02178946612662551</v>
+        <v>0.02051706682184631</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,19 +1541,19 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>44.33262312243377</v>
+        <v>44.5446297018355</v>
       </c>
       <c r="D45">
-        <v>2.480190074647985</v>
+        <v>2.502937590385034</v>
       </c>
       <c r="E45">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F45">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="H45">
-        <v>0.0211887527796739</v>
+        <v>0.02025711305360218</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1564,19 +1564,19 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>44.826572628003</v>
+        <v>44.29106405907361</v>
       </c>
       <c r="D46">
-        <v>2.537194237413022</v>
+        <v>2.514859871535505</v>
       </c>
       <c r="E46">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F46">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="H46">
-        <v>0.02167575058060336</v>
+        <v>0.02035360407201578</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1587,19 +1587,19 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>45.68751268696289</v>
+        <v>44.84549121139213</v>
       </c>
       <c r="D47">
-        <v>2.497606743729975</v>
+        <v>2.435873019135536</v>
       </c>
       <c r="E47">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F47">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="H47">
-        <v>0.02133754681735508</v>
+        <v>0.01971433699441828</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1610,19 +1610,19 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>44.3981977925688</v>
+        <v>44.16601719823231</v>
       </c>
       <c r="D48">
-        <v>2.42851300314866</v>
+        <v>2.414625758513194</v>
       </c>
       <c r="E48">
-        <v>231.4176277653876</v>
+        <v>176.8866146639206</v>
       </c>
       <c r="F48">
-        <v>185.0757745768408</v>
+        <v>195.3630708859277</v>
       </c>
       <c r="H48">
-        <v>0.02074726536966878</v>
+        <v>0.01954237579084711</v>
       </c>
     </row>
   </sheetData>
